--- a/xlsx/a69_f48_bUPPachuca.xlsx
+++ b/xlsx/a69_f48_bUPPachuca.xlsx
@@ -5,21 +5,21 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2DA ENTREGA DEL REPORTE DE LAS 48 FRACCIONES COMUNES\ENTREGA 3ER TRIMESTRE DE LAS 48 FRACIONES COMUNES\Vo. Bo. #1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\S. ESCOLARES\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="8580"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8280"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
   <si>
     <t>46820</t>
   </si>
@@ -141,53 +141,34 @@
     <t>Departamento de Servicios Escolares (UPP)</t>
   </si>
   <si>
-    <t>Buenas noches entonces esto es como un curso para entrar de nuevo y seria hasta diciembre o en mismo septiembre
-Espero pronta respuesta</t>
-  </si>
-  <si>
-    <t>Que tal buen dia, solo quiero saber que día es la publicación de la convocatoria de médico cirujano para enero-junio 2021, espero su pronta respuesta</t>
-  </si>
-  <si>
-    <t>Nuevo ingreso cuatrimestral</t>
-  </si>
-  <si>
-    <t>Nuevo ingreso semestral</t>
-  </si>
-  <si>
-    <t>Trámite de titulación</t>
+    <t>http://www.upp.edu.mx/serviciosescolares/</t>
+  </si>
+  <si>
+    <t>Nuevo ingreso</t>
+  </si>
+  <si>
+    <t>Emisión y registro de Título Profesional</t>
+  </si>
+  <si>
+    <t>Buenas tardes
+Cuando se abrirá nuevamente convocatoria para trámite de titulación???</t>
   </si>
   <si>
     <t>Hola,
-Se pide atentamente envíe los siguientes datos al correo electrónico titulacion@upp.edu.mx donde con gusto le brindarán la información que usted requiere
-Nombre completo.
-Programa educativo
-Número de Matrícula
-Ponemos a tu disposición el correo electrónico servescolares@upp.edu.mx para cualquier duda o aclaración.
+Se pide atentadamente contactar al personal que atiende el proceso de titulación a través del siguiente correo titulacion@upp.edu.mx donde con gusto le brindarán la información que usted requiere.
+Ponemos a tu disposición el correo electrónico servescolares@upp.edu.mx para brindarle una mejor atención.
 Saludos cordiales.</t>
   </si>
   <si>
-    <t>Buenas tardes
-Me gustaría saber cómo va mi trámite de título de Maestría que realicé en la convocatoria de Mayo del 2019. Y si habrá algún cambio debido a la situación actual.
-¡Sin más por el momento y esperando una pronta respuesta, me despido, saludos!</t>
-  </si>
-  <si>
-    <t>http://www.upp.edu.mx/serviciosescolares/?p=2014</t>
-  </si>
-  <si>
-    <t>http://www.upp.edu.mx/serviciosescolares/?p=2318</t>
-  </si>
-  <si>
-    <t>http://www.upp.edu.mx/serviciosescolares/?p=3316#comments</t>
-  </si>
-  <si>
-    <t>Estimada aspirante,
-Esta publicación es para las y los estudiantes que ya se encuentran inscritos y pasarán al siguiente cuatrimestre de su formación académica, en tu caso tendrías que esperar la convocatoria de nuevo ingreso para entrar en el cuatrimestre enero – abril 2021, dicha convocatoria será publicada a en el mes de octubre.
-Saludos cordiales.</t>
-  </si>
-  <si>
-    <t>Estimada aspirante,
-La convocatoria de nuevo ingreso para entrar en el semestre enero – julio 2021 será publicada a en el mes de octubre, mantente al pendiente de nuestra publicación.
-Saludos cordiales.</t>
+    <t>Hola,
+En el siguiente link se encuentra disponible la convocatoria de admisión para ingresar a los programas educativos de Ingeniería y de Licenciatura en Terapia Física en el periodo escolar Enero – Abril 2021.
+http://www.upp.edu.mx/serviciosescolares/wp-content/uploads/2020/10/convocatoria-de-admision-V4-02-HE-PDF-06102020.pdf
+Ponemos a su disposición el siguiente correo electrónico servescolares@upp.edu.mx
+para brindarle una mejor y oportuna atención
+Saludos cordiales</t>
+  </si>
+  <si>
+    <t>Hola, me gustaría saber si se abrirá una convocatoria para ingeniería financiera? Pará entrar en enero</t>
   </si>
 </sst>
 </file>
@@ -207,13 +188,11 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -270,34 +249,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -581,309 +565,269 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.42578125" customWidth="1"/>
-    <col min="6" max="6" width="66.28515625" customWidth="1"/>
-    <col min="7" max="7" width="62.28515625" customWidth="1"/>
-    <col min="8" max="8" width="62.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="73.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="96.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="50.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="62.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="73.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="8" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="8" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="11" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
     </row>
     <row r="7" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="8" spans="1:12" ht="188.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
         <v>2020</v>
       </c>
-      <c r="B8" s="4">
-        <v>44013</v>
-      </c>
-      <c r="C8" s="4">
-        <v>44104</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="B8" s="10">
+        <v>44105</v>
+      </c>
+      <c r="C8" s="10">
+        <v>44186</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1</v>
-      </c>
-      <c r="I8" s="6" t="s">
+      <c r="H8" s="9">
+        <v>3</v>
+      </c>
+      <c r="I8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="4">
-        <v>44114</v>
-      </c>
-      <c r="K8" s="4">
-        <v>44114</v>
+      <c r="J8" s="10">
+        <v>43840</v>
+      </c>
+      <c r="K8" s="10">
+        <v>43840</v>
       </c>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+    <row r="9" spans="1:12" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
         <v>2020</v>
       </c>
-      <c r="B9" s="4">
-        <v>44013</v>
-      </c>
-      <c r="C9" s="4">
-        <v>44104</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="B9" s="10">
+        <v>44105</v>
+      </c>
+      <c r="C9" s="10">
+        <v>44186</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="3">
-        <v>1</v>
-      </c>
-      <c r="I9" s="6" t="s">
+      <c r="F9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="9">
+        <v>2</v>
+      </c>
+      <c r="I9" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="4">
-        <v>44114</v>
-      </c>
-      <c r="K9" s="4">
-        <v>44114</v>
+      <c r="J9" s="10">
+        <v>43840</v>
+      </c>
+      <c r="K9" s="10">
+        <v>43840</v>
       </c>
       <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B10" s="4">
-        <v>44013</v>
-      </c>
-      <c r="C10" s="4">
-        <v>44104</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" s="3">
-        <v>2</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="4">
-        <v>44114</v>
-      </c>
-      <c r="K10" s="4">
-        <v>44114</v>
-      </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E11" s="5"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -896,11 +840,10 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G10" r:id="rId1"/>
-    <hyperlink ref="G8" r:id="rId2" location="comments"/>
-    <hyperlink ref="G9" r:id="rId3"/>
+    <hyperlink ref="G8" r:id="rId1"/>
+    <hyperlink ref="G9" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/xlsx/a69_f48_bUPPachuca.xlsx
+++ b/xlsx/a69_f48_bUPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\S. ESCOLARES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 4TO TRIMESTRE\Vo.Bo. Uno UPP 4T 2020\4TO TRIMESTRE 2020\EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8280"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -260,6 +260,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -274,15 +283,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -567,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,38 +594,38 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="4" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="7" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -704,20 +704,20 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
     </row>
     <row r="7" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -758,73 +758,73 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="188.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="4">
         <v>2020</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="5">
         <v>44105</v>
       </c>
-      <c r="C8" s="10">
-        <v>44186</v>
-      </c>
-      <c r="D8" s="9" t="s">
+      <c r="C8" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="4" t="s">
         <v>46</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="4">
         <v>3</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="5">
         <v>43840</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="5">
         <v>43840</v>
       </c>
       <c r="L8" s="3"/>
     </row>
     <row r="9" spans="1:12" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="4">
         <v>2020</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="5">
         <v>44105</v>
       </c>
-      <c r="C9" s="10">
-        <v>44186</v>
-      </c>
-      <c r="D9" s="9" t="s">
+      <c r="C9" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="4" t="s">
         <v>43</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="4">
         <v>2</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="5">
         <v>43840</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="5">
         <v>43840</v>
       </c>
       <c r="L9" s="3"/>

--- a/xlsx/a69_f48_bUPPachuca.xlsx
+++ b/xlsx/a69_f48_bUPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 4TO TRIMESTRE\Vo.Bo. Uno UPP 4T 2020\4TO TRIMESTRE 2020\EXCEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Entrega SIPOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t>46820</t>
   </si>
@@ -141,34 +141,34 @@
     <t>Departamento de Servicios Escolares (UPP)</t>
   </si>
   <si>
-    <t>http://www.upp.edu.mx/serviciosescolares/</t>
+    <t>Hola buenos días me gustaría saber cuándo salen las convocatorias para aspirantes de la licenciatura en Terapia Física de septiembre 2021</t>
   </si>
   <si>
     <t>Nuevo ingreso</t>
   </si>
   <si>
-    <t>Emisión y registro de Título Profesional</t>
-  </si>
-  <si>
-    <t>Buenas tardes
-Cuando se abrirá nuevamente convocatoria para trámite de titulación???</t>
+    <t>Requisitos de titulación</t>
+  </si>
+  <si>
+    <t>hola buenas noches con quien me puedo comunicar, ya cuento con todos los requisitos para empezar con mi tramite de titulación pero en el SII no me aparece la pestaña de «agenda» para poder programar mi cita me pueden apoyar gracias.</t>
+  </si>
+  <si>
+    <t>http://www.upp.edu.mx/serviciosescolares/?p=3599</t>
+  </si>
+  <si>
+    <t>http://www.upp.edu.mx/serviciosescolares/?p=3666#comments</t>
   </si>
   <si>
     <t>Hola,
-Se pide atentadamente contactar al personal que atiende el proceso de titulación a través del siguiente correo titulacion@upp.edu.mx donde con gusto le brindarán la información que usted requiere.
-Ponemos a tu disposición el correo electrónico servescolares@upp.edu.mx para brindarle una mejor atención.
+Gracias por contactarnos, en el siguiente link se encuentra disponible la convocatoria de admisión para ingreso a las carreras de Ingeniería y de Licenciatura en Terapia Física para el periodo escolar Septiembre – Diciembre 2021.
+http://www.upp.edu.mx/serviciosescolares/wp-content/uploads/2021/03/Convocatoria213_230321.pdf
+Ponemos a su disposición el correo servescolares@upp.edu.mx para brindarle una mejor y oportuna atención.
 Saludos cordiales.</t>
   </si>
   <si>
     <t>Hola,
-En el siguiente link se encuentra disponible la convocatoria de admisión para ingresar a los programas educativos de Ingeniería y de Licenciatura en Terapia Física en el periodo escolar Enero – Abril 2021.
-http://www.upp.edu.mx/serviciosescolares/wp-content/uploads/2020/10/convocatoria-de-admision-V4-02-HE-PDF-06102020.pdf
-Ponemos a su disposición el siguiente correo electrónico servescolares@upp.edu.mx
-para brindarle una mejor y oportuna atención
-Saludos cordiales</t>
-  </si>
-  <si>
-    <t>Hola, me gustaría saber si se abrirá una convocatoria para ingeniería financiera? Pará entrar en enero</t>
+Gracias por contactarnos, ponemos a su disposición el correo titulacion@upp.edu.mx para brindarle la información relacionada con el trámite de emisión de título profesional.
+Saludos cordiales.</t>
   </si>
 </sst>
 </file>
@@ -249,40 +249,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -567,267 +562,266 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="H2" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="96.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="50.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="62.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="73.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.7109375" customWidth="1"/>
+    <col min="6" max="6" width="96.7109375" customWidth="1"/>
+    <col min="7" max="7" width="58.140625" customWidth="1"/>
+    <col min="8" max="8" width="62.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="73.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="7" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:12" s="10" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="10" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:12" ht="9.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="188.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>2020</v>
-      </c>
-      <c r="B8" s="5">
-        <v>44105</v>
-      </c>
-      <c r="C8" s="5">
-        <v>44196</v>
-      </c>
-      <c r="D8" s="4" t="s">
+    <row r="8" spans="1:12" s="3" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B8" s="4">
+        <v>44197</v>
+      </c>
+      <c r="C8" s="4">
+        <v>44286</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="4">
-        <v>3</v>
-      </c>
-      <c r="I8" s="4" t="s">
+      <c r="H8" s="2">
+        <v>36</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="5">
-        <v>43840</v>
-      </c>
-      <c r="K8" s="5">
-        <v>43840</v>
-      </c>
-      <c r="L8" s="3"/>
+      <c r="J8" s="4">
+        <v>44298</v>
+      </c>
+      <c r="K8" s="4">
+        <v>44298</v>
+      </c>
+      <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>2020</v>
-      </c>
-      <c r="B9" s="5">
-        <v>44105</v>
-      </c>
-      <c r="C9" s="5">
-        <v>44196</v>
-      </c>
-      <c r="D9" s="4" t="s">
+    <row r="9" spans="1:12" s="3" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B9" s="4">
+        <v>44197</v>
+      </c>
+      <c r="C9" s="4">
+        <v>44286</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" s="4">
-        <v>2</v>
-      </c>
-      <c r="I9" s="4" t="s">
+      <c r="H9" s="2">
+        <v>4</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="5">
-        <v>43840</v>
-      </c>
-      <c r="K9" s="5">
-        <v>43840</v>
-      </c>
-      <c r="L9" s="3"/>
+      <c r="J9" s="4">
+        <v>44298</v>
+      </c>
+      <c r="K9" s="4">
+        <v>44298</v>
+      </c>
+      <c r="L9" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -840,8 +834,8 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G8" r:id="rId1"/>
-    <hyperlink ref="G9" r:id="rId2"/>
+    <hyperlink ref="G9" r:id="rId1"/>
+    <hyperlink ref="G8" r:id="rId2" location="comments"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>

--- a/xlsx/a69_f48_bUPPachuca.xlsx
+++ b/xlsx/a69_f48_bUPPachuca.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Entrega SIPOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Faltantes UPP 2DO TRIMESTRE21\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
   <si>
     <t>46820</t>
   </si>
@@ -138,37 +138,23 @@
     <t>Nota</t>
   </si>
   <si>
-    <t>Departamento de Servicios Escolares (UPP)</t>
-  </si>
-  <si>
-    <t>Hola buenos días me gustaría saber cuándo salen las convocatorias para aspirantes de la licenciatura en Terapia Física de septiembre 2021</t>
-  </si>
-  <si>
     <t>Nuevo ingreso</t>
   </si>
   <si>
-    <t>Requisitos de titulación</t>
-  </si>
-  <si>
-    <t>hola buenas noches con quien me puedo comunicar, ya cuento con todos los requisitos para empezar con mi tramite de titulación pero en el SII no me aparece la pestaña de «agenda» para poder programar mi cita me pueden apoyar gracias.</t>
-  </si>
-  <si>
-    <t>http://www.upp.edu.mx/serviciosescolares/?p=3599</t>
-  </si>
-  <si>
-    <t>http://www.upp.edu.mx/serviciosescolares/?p=3666#comments</t>
+    <t>Quisiera saber cuando va a salir la convocatoria para ing.en mecánica automotriz y si lla salio como puedo ingresar</t>
   </si>
   <si>
     <t>Hola,
 Gracias por contactarnos, en el siguiente link se encuentra disponible la convocatoria de admisión para ingreso a las carreras de Ingeniería y de Licenciatura en Terapia Física para el periodo escolar Septiembre – Diciembre 2021.
 http://www.upp.edu.mx/serviciosescolares/wp-content/uploads/2021/03/Convocatoria213_230321.pdf
-Ponemos a su disposición el correo servescolares@upp.edu.mx para brindarle una mejor y oportuna atención.
-Saludos cordiales.</t>
-  </si>
-  <si>
-    <t>Hola,
-Gracias por contactarnos, ponemos a su disposición el correo titulacion@upp.edu.mx para brindarle la información relacionada con el trámite de emisión de título profesional.
-Saludos cordiales.</t>
+Ponemos a su disposición el correo servescolares@upp.edu.mx para brindarle una mejor y oportuna atención
+Saludos cordiales</t>
+  </si>
+  <si>
+    <t>http://www.upp.edu.mx/serviciosescolares/?p=3666#comments</t>
+  </si>
+  <si>
+    <t>Departamento de Servicios Escolares (UPP)</t>
   </si>
 </sst>
 </file>
@@ -255,25 +241,23 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -560,21 +544,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H2" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="H2" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.7109375" customWidth="1"/>
-    <col min="6" max="6" width="96.7109375" customWidth="1"/>
-    <col min="7" max="7" width="58.140625" customWidth="1"/>
+    <col min="5" max="5" width="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="67.140625" customWidth="1"/>
+    <col min="7" max="7" width="73" customWidth="1"/>
     <col min="8" max="8" width="62.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
@@ -604,22 +588,22 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:12" s="10" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
       <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="8" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -659,7 +643,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="9.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -751,77 +735,41 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="3" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2021</v>
       </c>
-      <c r="B8" s="4">
-        <v>44197</v>
-      </c>
-      <c r="C8" s="4">
-        <v>44286</v>
+      <c r="B8" s="3">
+        <v>44287</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44377</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="G8" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H8" s="2">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J8" s="4">
-        <v>44298</v>
-      </c>
-      <c r="K8" s="4">
-        <v>44298</v>
+        <v>43</v>
+      </c>
+      <c r="J8" s="3">
+        <v>44386</v>
+      </c>
+      <c r="K8" s="3">
+        <v>44386</v>
       </c>
       <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" s="3" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>2021</v>
-      </c>
-      <c r="B9" s="4">
-        <v>44197</v>
-      </c>
-      <c r="C9" s="4">
-        <v>44286</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="2">
-        <v>4</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="4">
-        <v>44298</v>
-      </c>
-      <c r="K9" s="4">
-        <v>44298</v>
-      </c>
-      <c r="L9" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -834,10 +782,8 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G9" r:id="rId1"/>
-    <hyperlink ref="G8" r:id="rId2" location="comments"/>
+    <hyperlink ref="G8" r:id="rId1" location="comments"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/xlsx/a69_f48_bUPPachuca.xlsx
+++ b/xlsx/a69_f48_bUPPachuca.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Faltantes UPP 2DO TRIMESTRE21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 3ER TRIMETRES 2021\3ER TRIMESTRE 2021 PAGINA OFICIAL\EXCELL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t>46820</t>
   </si>
@@ -138,23 +138,42 @@
     <t>Nota</t>
   </si>
   <si>
-    <t>Nuevo ingreso</t>
-  </si>
-  <si>
-    <t>Quisiera saber cuando va a salir la convocatoria para ing.en mecánica automotriz y si lla salio como puedo ingresar</t>
+    <t>Departamento de Servicios Escolares (UPP)</t>
+  </si>
+  <si>
+    <t>Admisión</t>
   </si>
   <si>
     <t>Hola,
-Gracias por contactarnos, en el siguiente link se encuentra disponible la convocatoria de admisión para ingreso a las carreras de Ingeniería y de Licenciatura en Terapia Física para el periodo escolar Septiembre – Diciembre 2021.
-http://www.upp.edu.mx/serviciosescolares/wp-content/uploads/2021/03/Convocatoria213_230321.pdf
-Ponemos a su disposición el correo servescolares@upp.edu.mx para brindarle una mejor y oportuna atención
+Gracias por contactarnos, en el siguiente link se encuentran disponibles las listas de aspirantes aceptados.
+http://www.upp.edu.mx/serviciosescolares/?p=3769
+Ponemos a su disposición el correo servescolares@upp.edu.mx para brindarle una oportuna atención.
+Saludos cordiales.</t>
+  </si>
+  <si>
+    <t>Curso propedéutico</t>
+  </si>
+  <si>
+    <t>Buenas tardes aún se puede escribir</t>
+  </si>
+  <si>
+    <t>Hola,
+Gracias por contactarnos, la fecha límite de inscripción al curso propedéutico para carreras de Ingeniería y de la Licenciatura en Terapia Física es el 24 de septiembre de 2021.
+Ponemos a su disposición el siguiente correo para brindarle una mejor y oportuna atención
+propedeutico.cuatrimestral@upp.edu.mx
 Saludos cordiales</t>
   </si>
   <si>
-    <t>http://www.upp.edu.mx/serviciosescolares/?p=3666#comments</t>
-  </si>
-  <si>
-    <t>Departamento de Servicios Escolares (UPP)</t>
+    <t>http://www.upp.edu.mx/serviciosescolares/?p=3813#comments</t>
+  </si>
+  <si>
+    <t>Buenas tardes.
+¿Tendrá información de los resultados para la maestría en mecatrónica?
+Me comentaron que sería el día de hoy, ¿habrá algún horario programado?
+Gracias de antemano, saludos.</t>
+  </si>
+  <si>
+    <t>http://www.upp.edu.mx/serviciosescolares/?p=3713#comments</t>
   </si>
 </sst>
 </file>
@@ -241,16 +260,16 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -544,21 +563,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H2" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="67.140625" customWidth="1"/>
-    <col min="7" max="7" width="73" customWidth="1"/>
+    <col min="5" max="5" width="67.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="96.7109375" customWidth="1"/>
+    <col min="7" max="7" width="64.140625" customWidth="1"/>
     <col min="8" max="8" width="62.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
@@ -588,7 +607,7 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -735,41 +754,77 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="3" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2021</v>
       </c>
-      <c r="B8" s="3">
-        <v>44287</v>
-      </c>
-      <c r="C8" s="3">
-        <v>44377</v>
+      <c r="B8" s="4">
+        <v>44378</v>
+      </c>
+      <c r="C8" s="4">
+        <v>44469</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="5" t="s">
+      <c r="J8" s="4">
+        <v>44480</v>
+      </c>
+      <c r="K8" s="4">
+        <v>44480</v>
+      </c>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" s="3" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B9" s="4">
+        <v>44378</v>
+      </c>
+      <c r="C9" s="4">
+        <v>44469</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="2">
-        <v>28</v>
-      </c>
-      <c r="I8" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J8" s="3">
-        <v>44386</v>
-      </c>
-      <c r="K8" s="3">
-        <v>44386</v>
-      </c>
-      <c r="L8" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="4">
+        <v>44480</v>
+      </c>
+      <c r="K9" s="4">
+        <v>44480</v>
+      </c>
+      <c r="L9" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -782,8 +837,10 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G8" r:id="rId1" location="comments"/>
+    <hyperlink ref="G9" r:id="rId1" location="comments"/>
+    <hyperlink ref="G8" r:id="rId2" location="comments"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/xlsx/a69_f48_bUPPachuca.xlsx
+++ b/xlsx/a69_f48_bUPPachuca.xlsx
@@ -5,21 +5,21 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 3ER TRIMETRES 2021\3ER TRIMESTRE 2021 PAGINA OFICIAL\EXCELL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\4to trimestre 2021\4to Trimestre SIPOT 2021 Pagina Oficial\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
   <si>
     <t>46820</t>
   </si>
@@ -138,42 +138,50 @@
     <t>Nota</t>
   </si>
   <si>
-    <t>Departamento de Servicios Escolares (UPP)</t>
-  </si>
-  <si>
-    <t>Admisión</t>
+    <t>hola, tengo problemas con los extracurriculares, necesito completar 2 extracurriculares (estoy en 4 cuatrimestre de biomédica), en este cuatrimestre (4) me había inscrito en el grupo de guitarra (en miércoles), pero el profesor Raúl Israel Anda Chávez dio de baja el grupo por "tener pocos alumnos", sin embargo no nos dio un aviso a los que cursamos el día miércoles.
+trate de comunicarme  por medio de un amigo, un correo y por WhatsApp pero me dijo que ya no me podía meter en un grupo por que ya no le aparecía en el sistema (dio de baja el grupo) :( 
+¿con quien puedo comunicarme o que puedo hacer para cursar los extracurriculares?</t>
+  </si>
+  <si>
+    <t>Actividades extracurriculares</t>
   </si>
   <si>
     <t>Hola,
-Gracias por contactarnos, en el siguiente link se encuentran disponibles las listas de aspirantes aceptados.
-http://www.upp.edu.mx/serviciosescolares/?p=3769
-Ponemos a su disposición el correo servescolares@upp.edu.mx para brindarle una oportuna atención.
+Gracias por comunicarse, se pide atentamente contactar a la Ing. Nancy Judith Cortés Martínez a través del siguiente correo deportes@upp.edu.mx con gusto le brindará la información que usted requiere.
+Saludos cordiales</t>
+  </si>
+  <si>
+    <t>https://www.upp.edu.mx/serviciosescolares/?page_id=2</t>
+  </si>
+  <si>
+    <t>Departamento de Servicio Escolares</t>
+  </si>
+  <si>
+    <t>Nuevo ingreso</t>
+  </si>
+  <si>
+    <t>Hola buenos días solo quisiera saber como puedo sacar mi ficha para el periodo Febrero-Agosto 2022 y que requisitos necesito.</t>
+  </si>
+  <si>
+    <t>Hola,
+Gracias por contactarnos, la convocatoria de admisión para ingresar en septiembre de 2022 a las Ingenierías y a la Licenciatura en Terapia Física se publicará en la página web institucional en la semana del 24 al 28 de enero de 2022 para presentar evaluación diagnóstica (examen de ingreso) el 1 o 2 de agosto de 2022.
+Ponemos a su disposición el número telefónico 7715477510 ext. 2213 y 2244 a través del cual brindamos atención de lunes a viernes en días hábiles de 9:00 a 16:00 horas.
 Saludos cordiales.</t>
   </si>
   <si>
-    <t>Curso propedéutico</t>
-  </si>
-  <si>
-    <t>Buenas tardes aún se puede escribir</t>
+    <t>Titulación</t>
+  </si>
+  <si>
+    <t>hola buenos días en donde puedo checar los lineamientos para la elaboración de memoria académica</t>
   </si>
   <si>
     <t>Hola,
-Gracias por contactarnos, la fecha límite de inscripción al curso propedéutico para carreras de Ingeniería y de la Licenciatura en Terapia Física es el 24 de septiembre de 2021.
-Ponemos a su disposición el siguiente correo para brindarle una mejor y oportuna atención
-propedeutico.cuatrimestral@upp.edu.mx
-Saludos cordiales</t>
-  </si>
-  <si>
-    <t>http://www.upp.edu.mx/serviciosescolares/?p=3813#comments</t>
-  </si>
-  <si>
-    <t>Buenas tardes.
-¿Tendrá información de los resultados para la maestría en mecatrónica?
-Me comentaron que sería el día de hoy, ¿habrá algún horario programado?
-Gracias de antemano, saludos.</t>
-  </si>
-  <si>
-    <t>http://www.upp.edu.mx/serviciosescolares/?p=3713#comments</t>
+Es preciso se comunique con el personal de la Dirección del programa educativo que estudia.
+Ponemos a su disposición el número telefónico 7715477510 ext. 2213 y 2244 a través del cual brindamos atención de lunes a viernes en días hábiles de 9:00 a 16:00 horas
+Saludos cordiales.</t>
+  </si>
+  <si>
+    <t>https://www.upp.edu.mx/serviciosescolares/?p=3599</t>
   </si>
 </sst>
 </file>
@@ -254,22 +262,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -563,21 +572,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+    <sheetView tabSelected="1" topLeftCell="E2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="67.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="96.7109375" customWidth="1"/>
-    <col min="7" max="7" width="64.140625" customWidth="1"/>
+    <col min="5" max="5" width="74.5703125" customWidth="1"/>
+    <col min="6" max="6" width="53.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="76" customWidth="1"/>
     <col min="8" max="8" width="62.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
@@ -591,38 +600,38 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="9" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -701,20 +710,20 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
     </row>
     <row r="7" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -754,77 +763,113 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="3" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>2021</v>
       </c>
       <c r="B8" s="4">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C8" s="4">
-        <v>44469</v>
-      </c>
-      <c r="D8" s="2" t="s">
+        <v>44561</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="4">
+        <v>44571</v>
+      </c>
+      <c r="K8" s="4">
+        <v>44571</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" s="2" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B9" s="4">
+        <v>44470</v>
+      </c>
+      <c r="C9" s="4">
+        <v>44561</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="5" t="s">
+      <c r="G9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="3">
+        <v>2</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="4">
+        <v>44571</v>
+      </c>
+      <c r="K9" s="4">
+        <v>44571</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" s="2" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B10" s="4">
+        <v>44470</v>
+      </c>
+      <c r="C10" s="4">
+        <v>44561</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="2">
-        <v>1</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J8" s="4">
-        <v>44480</v>
-      </c>
-      <c r="K8" s="4">
-        <v>44480</v>
-      </c>
-      <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" s="3" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>2021</v>
-      </c>
-      <c r="B9" s="4">
-        <v>44378</v>
-      </c>
-      <c r="C9" s="4">
-        <v>44469</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="E10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="2">
-        <v>1</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="4">
-        <v>44480</v>
-      </c>
-      <c r="K9" s="4">
-        <v>44480</v>
-      </c>
-      <c r="L9" s="2"/>
+      <c r="J10" s="4">
+        <v>44571</v>
+      </c>
+      <c r="K10" s="4">
+        <v>44571</v>
+      </c>
+      <c r="L10" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -837,10 +882,10 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G9" r:id="rId1" location="comments"/>
-    <hyperlink ref="G8" r:id="rId2" location="comments"/>
+    <hyperlink ref="G8" r:id="rId1"/>
+    <hyperlink ref="G9" r:id="rId2"/>
+    <hyperlink ref="G10" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/xlsx/a69_f48_bUPPachuca.xlsx
+++ b/xlsx/a69_f48_bUPPachuca.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\4to trimestre 2021\4to Trimestre SIPOT 2021 Pagina Oficial\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
   <si>
     <t>46820</t>
   </si>
@@ -138,50 +133,77 @@
     <t>Nota</t>
   </si>
   <si>
-    <t>hola, tengo problemas con los extracurriculares, necesito completar 2 extracurriculares (estoy en 4 cuatrimestre de biomédica), en este cuatrimestre (4) me había inscrito en el grupo de guitarra (en miércoles), pero el profesor Raúl Israel Anda Chávez dio de baja el grupo por "tener pocos alumnos", sin embargo no nos dio un aviso a los que cursamos el día miércoles.
-trate de comunicarme  por medio de un amigo, un correo y por WhatsApp pero me dijo que ya no me podía meter en un grupo por que ya no le aparecía en el sistema (dio de baja el grupo) :( 
-¿con quien puedo comunicarme o que puedo hacer para cursar los extracurriculares?</t>
-  </si>
-  <si>
-    <t>Actividades extracurriculares</t>
+    <t xml:space="preserve"> Departamento de Servicio Escolares (UPP)</t>
+  </si>
+  <si>
+    <t>Examen profesional de la Licenciatura en Médico Cirujano</t>
+  </si>
+  <si>
+    <t>Buenas tardes¡¡¡
+soy Daniel 
+tengo dos dudas :
+¿donde puedo obtener la guía de estudios para el examen teórico practico para titulacion de la licenciatura de medico cirujano.?
+¿cual es la fecha próxima para realizar el examen ?
+¿cuales son las fechas de pago para el examen y los requisitos así como el lugar cede para presentar el examen ?</t>
   </si>
   <si>
     <t>Hola,
-Gracias por comunicarse, se pide atentamente contactar a la Ing. Nancy Judith Cortés Martínez a través del siguiente correo deportes@upp.edu.mx con gusto le brindará la información que usted requiere.
+Gracias por contactarnos, se pide atentamente se comunique con el personal de la Dirección del Programa Educativo de Licenciatura en Médico Cirujano, con gusto le brindarán la información referente al examen profesional dl programa educativo antes citado.
+Para tal efecto ponemos a su disposición los siguientes datos de contacto:
+Correo electrónico: medico_cirujano@upp.edu.mx
+Teléfono 7715477510 ext. 2528
 Saludos cordiales</t>
   </si>
   <si>
-    <t>https://www.upp.edu.mx/serviciosescolares/?page_id=2</t>
-  </si>
-  <si>
-    <t>Departamento de Servicio Escolares</t>
-  </si>
-  <si>
-    <t>Nuevo ingreso</t>
-  </si>
-  <si>
-    <t>Hola buenos días solo quisiera saber como puedo sacar mi ficha para el periodo Febrero-Agosto 2022 y que requisitos necesito.</t>
+    <t>https://www.upp.edu.mx/serviciosescolares/?p=4011</t>
+  </si>
+  <si>
+    <t>Convocatoria de titulación</t>
+  </si>
+  <si>
+    <t>Excelente día ¿que fechas tiene próximas a tramite de titulación de este año a nivel licenciatura?</t>
   </si>
   <si>
     <t>Hola,
-Gracias por contactarnos, la convocatoria de admisión para ingresar en septiembre de 2022 a las Ingenierías y a la Licenciatura en Terapia Física se publicará en la página web institucional en la semana del 24 al 28 de enero de 2022 para presentar evaluación diagnóstica (examen de ingreso) el 1 o 2 de agosto de 2022.
-Ponemos a su disposición el número telefónico 7715477510 ext. 2213 y 2244 a través del cual brindamos atención de lunes a viernes en días hábiles de 9:00 a 16:00 horas.
-Saludos cordiales.</t>
-  </si>
-  <si>
-    <t>Titulación</t>
-  </si>
-  <si>
-    <t>hola buenos días en donde puedo checar los lineamientos para la elaboración de memoria académica</t>
+Gracias por contactarnos, los lineamientos para emisión de título profesional se encuentran disponibles en el siguiente link:
+https://www.upp.edu.mx/serviciosescolares/wp-content/uploads/2022/02/Lineamientos-nivel-Licenciatura-10_02_2022_.pdf
+Ponemos a su disposición el siguiente correo para brindarle una mejor y oportuna atención titulacion@upp.edu.mx
+Saludos cordiales</t>
+  </si>
+  <si>
+    <t>Admisión</t>
+  </si>
+  <si>
+    <t>https://www.upp.edu.mx/serviciosescolares/?p=3599</t>
+  </si>
+  <si>
+    <t>Buena tarde, acabo de realizar mi pre registro para ingresar a terapia física. Estoy interesada en tomar el curso propedéutico para intentar obtener la admisión directa, mi duda es si aún así tengo que hacer el pago de la evaluación diagnóstica.</t>
   </si>
   <si>
     <t>Hola,
-Es preciso se comunique con el personal de la Dirección del programa educativo que estudia.
-Ponemos a su disposición el número telefónico 7715477510 ext. 2213 y 2244 a través del cual brindamos atención de lunes a viernes en días hábiles de 9:00 a 16:00 horas
-Saludos cordiales.</t>
-  </si>
-  <si>
-    <t>https://www.upp.edu.mx/serviciosescolares/?p=3599</t>
+Gracias por contactarnos, si usted se va a inscribir al curso propedéutico, se sugiere únicamente realizar el pago del curso. Una vez que concluya el curso si requiere realizar el pago de la evaluación diagnóstica lo podrá realizar sin problema.
+Ponemos a su disposición los siguientes datos de contacto para brindarle una mejor y oportuna atención:
+Correo electrónico: servescolares@upp.edu.mx
+Teléfono 7715477510 ext. 2244 y 2213</t>
+  </si>
+  <si>
+    <t>https://www.upp.edu.mx/serviciosescolares/?p=4085#comments</t>
+  </si>
+  <si>
+    <t>Curso propedéutico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Donde puedo encontrar la guia de estudios?
+</t>
+  </si>
+  <si>
+    <t>Hola,
+Gracias por contactarnos, la guía de estudios será proporcionada junto con el pase de ingreso a la evaluación diagnóstica.
+Ponemos a su disposición los siguientes datos de contacto para brindarle una mejor y oportuna atención:
+Correo electrónico: servescolares@upp.edu.mx
+Teléfono 7715477510 ext. 2244 y 2213
+Saludos cordiales</t>
   </si>
 </sst>
 </file>
@@ -234,7 +256,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -257,12 +279,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -285,11 +316,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -564,7 +598,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -572,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,9 +618,9 @@
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="74.5703125" customWidth="1"/>
-    <col min="6" max="6" width="53.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="76" customWidth="1"/>
+    <col min="5" max="5" width="59.85546875" customWidth="1"/>
+    <col min="6" max="6" width="68.42578125" customWidth="1"/>
+    <col min="7" max="7" width="71.5703125" customWidth="1"/>
     <col min="8" max="8" width="62.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
@@ -616,7 +650,7 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
@@ -763,113 +797,149 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B8" s="4">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C8" s="4">
-        <v>44561</v>
-      </c>
-      <c r="D8" s="3" t="s">
+        <v>44651</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="3">
         <v>1</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J8" s="4">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="K8" s="4">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" s="2" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B9" s="4">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C9" s="4">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="3">
+        <v>3</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="4">
+        <v>44659</v>
+      </c>
+      <c r="K9" s="4">
+        <v>44659</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" s="2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B10" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C10" s="4">
+        <v>44651</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="3">
-        <v>2</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J9" s="4">
-        <v>44571</v>
-      </c>
-      <c r="K9" s="4">
-        <v>44571</v>
-      </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" s="2" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B10" s="4">
-        <v>44470</v>
-      </c>
-      <c r="C10" s="4">
-        <v>44561</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="G10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="3">
+        <v>5</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="4">
+        <v>44659</v>
+      </c>
+      <c r="K10" s="4">
+        <v>44659</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B11" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C11" s="4">
+        <v>44651</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" s="3">
-        <v>2</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J10" s="4">
-        <v>44571</v>
-      </c>
-      <c r="K10" s="4">
-        <v>44571</v>
-      </c>
-      <c r="L10" s="3"/>
+      <c r="E11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="3">
+        <v>4</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="4">
+        <v>44659</v>
+      </c>
+      <c r="K11" s="4">
+        <v>44659</v>
+      </c>
+      <c r="L11" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -882,10 +952,12 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G8" r:id="rId1"/>
-    <hyperlink ref="G9" r:id="rId2"/>
-    <hyperlink ref="G10" r:id="rId3"/>
+    <hyperlink ref="G10" r:id="rId1"/>
+    <hyperlink ref="G9" r:id="rId2" location="comments"/>
+    <hyperlink ref="G11" r:id="rId3" location="comments"/>
+    <hyperlink ref="G8" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/xlsx/a69_f48_bUPPachuca.xlsx
+++ b/xlsx/a69_f48_bUPPachuca.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7650"/>
   </bookViews>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
   <si>
     <t>46820</t>
   </si>
@@ -133,76 +133,57 @@
     <t>Nota</t>
   </si>
   <si>
-    <t xml:space="preserve"> Departamento de Servicio Escolares (UPP)</t>
-  </si>
-  <si>
-    <t>Examen profesional de la Licenciatura en Médico Cirujano</t>
-  </si>
-  <si>
-    <t>Buenas tardes¡¡¡
-soy Daniel 
-tengo dos dudas :
-¿donde puedo obtener la guía de estudios para el examen teórico practico para titulacion de la licenciatura de medico cirujano.?
-¿cual es la fecha próxima para realizar el examen ?
-¿cuales son las fechas de pago para el examen y los requisitos así como el lugar cede para presentar el examen ?</t>
+    <t>Departamento de Servicio Escolares (UPP)</t>
+  </si>
+  <si>
+    <t>Buenas tardes, donde puedo descargar la guia para el examen de admisión. Nose si sea la misma guia.</t>
+  </si>
+  <si>
+    <t>Nevo ingreso</t>
+  </si>
+  <si>
+    <t>https://www.upp.edu.mx/serviciosescolares/?p=4089</t>
+  </si>
+  <si>
+    <t>Para llenar el formato de silicitud de baja, en el apartado de elegir motivo, se elige uno por los 4 puntos o se contesta en cada punto que aparece?</t>
+  </si>
+  <si>
+    <t>Bajas</t>
+  </si>
+  <si>
+    <t>https://www.upp.edu.mx/serviciosescolares/?page_id=2</t>
+  </si>
+  <si>
+    <t>Titulación</t>
+  </si>
+  <si>
+    <t>Hola, buen dia. El día de mañana es mi cita, en caso de no contar con INE ni pasaporte por extravío. Puedo utilizar mi licencia de conducir para presentarme a la cita?</t>
+  </si>
+  <si>
+    <t>https://www.upp.edu.mx/serviciosescolares/?p=4156</t>
   </si>
   <si>
     <t>Hola,
-Gracias por contactarnos, se pide atentamente se comunique con el personal de la Dirección del Programa Educativo de Licenciatura en Médico Cirujano, con gusto le brindarán la información referente al examen profesional dl programa educativo antes citado.
-Para tal efecto ponemos a su disposición los siguientes datos de contacto:
-Correo electrónico: medico_cirujano@upp.edu.mx
-Teléfono 7715477510 ext. 2528
-Saludos cordiales</t>
-  </si>
-  <si>
-    <t>https://www.upp.edu.mx/serviciosescolares/?p=4011</t>
-  </si>
-  <si>
-    <t>Convocatoria de titulación</t>
-  </si>
-  <si>
-    <t>Excelente día ¿que fechas tiene próximas a tramite de titulación de este año a nivel licenciatura?</t>
-  </si>
-  <si>
-    <t>Hola,
-Gracias por contactarnos, los lineamientos para emisión de título profesional se encuentran disponibles en el siguiente link:
-https://www.upp.edu.mx/serviciosescolares/wp-content/uploads/2022/02/Lineamientos-nivel-Licenciatura-10_02_2022_.pdf
-Ponemos a su disposición el siguiente correo para brindarle una mejor y oportuna atención titulacion@upp.edu.mx
-Saludos cordiales</t>
-  </si>
-  <si>
-    <t>Admisión</t>
-  </si>
-  <si>
-    <t>https://www.upp.edu.mx/serviciosescolares/?p=3599</t>
-  </si>
-  <si>
-    <t>Buena tarde, acabo de realizar mi pre registro para ingresar a terapia física. Estoy interesada en tomar el curso propedéutico para intentar obtener la admisión directa, mi duda es si aún así tengo que hacer el pago de la evaluación diagnóstica.</t>
-  </si>
-  <si>
-    <t>Hola,
-Gracias por contactarnos, si usted se va a inscribir al curso propedéutico, se sugiere únicamente realizar el pago del curso. Una vez que concluya el curso si requiere realizar el pago de la evaluación diagnóstica lo podrá realizar sin problema.
-Ponemos a su disposición los siguientes datos de contacto para brindarle una mejor y oportuna atención:
-Correo electrónico: servescolares@upp.edu.mx
-Teléfono 7715477510 ext. 2244 y 2213</t>
-  </si>
-  <si>
-    <t>https://www.upp.edu.mx/serviciosescolares/?p=4085#comments</t>
-  </si>
-  <si>
-    <t>Curso propedéutico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Donde puedo encontrar la guia de estudios?
-</t>
-  </si>
-  <si>
-    <t>Hola,
-Gracias por contactarnos, la guía de estudios será proporcionada junto con el pase de ingreso a la evaluación diagnóstica.
+Gracias por contactarnos, la guía de estudios se le brindará junto con el pase de ingreso a la evaluación diagnóstica.
 Ponemos a su disposición los siguientes datos de contacto para brindarle una mejor y oportuna atención:
 Correo electrónico: servescolares@upp.edu.mx
 Teléfono 7715477510 ext. 2244 y 2213
+Saludos cordiales</t>
+  </si>
+  <si>
+    <t>Hola,
+Gracias por contactarnos, deberá elegir sólo una opción.
+Ponemos a su disposición los siguientes datos de contacto para brindarle una mejor y oportuna atención:
+Correo electrónico: servescolares@upp.edu.mx
+Teléfono 7715477510 ext. 2244 y 2213
+Saludos cordiales</t>
+  </si>
+  <si>
+    <t>Hola,
+Gracias por contactarnos, sí puede presentar alguna otra identificación con fotografía.
+Ponemos a su disposición los siguientes datos de contacto para brindarle una mejor y oportuna atención:
+Teléfono 7715477510 ext. 2244 y 2213
+Horario de atención De lunes a viernes en días hábiles de 9:00 a 16:00 horas
 Saludos cordiales</t>
   </si>
 </sst>
@@ -210,7 +191,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -223,11 +204,20 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -291,7 +281,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -302,14 +292,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -321,9 +314,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -354,39 +344,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -421,7 +411,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -465,151 +455,175 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,14 +632,14 @@
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="59.85546875" customWidth="1"/>
-    <col min="6" max="6" width="68.42578125" customWidth="1"/>
-    <col min="7" max="7" width="71.5703125" customWidth="1"/>
+    <col min="5" max="5" width="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.42578125" customWidth="1"/>
     <col min="8" max="8" width="62.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -634,38 +648,38 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="7" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="10" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -744,20 +758,20 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
     </row>
     <row r="7" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -797,149 +811,113 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2022</v>
       </c>
-      <c r="B8" s="4">
-        <v>44562</v>
-      </c>
-      <c r="C8" s="4">
-        <v>44651</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="B8" s="5">
+        <v>44652</v>
+      </c>
+      <c r="C8" s="5">
+        <v>44742</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>43</v>
-      </c>
       <c r="H8" s="3">
-        <v>1</v>
-      </c>
-      <c r="I8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="4">
-        <v>44659</v>
-      </c>
-      <c r="K8" s="4">
-        <v>44659</v>
+      <c r="J8" s="5">
+        <v>44753</v>
+      </c>
+      <c r="K8" s="5">
+        <v>44753</v>
       </c>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2022</v>
       </c>
-      <c r="B9" s="4">
-        <v>44562</v>
-      </c>
-      <c r="C9" s="4">
-        <v>44651</v>
+      <c r="B9" s="5">
+        <v>44652</v>
+      </c>
+      <c r="C9" s="5">
+        <v>44742</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="12" t="s">
-        <v>51</v>
+      <c r="G9" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="H9" s="3">
-        <v>3</v>
-      </c>
-      <c r="I9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="4">
-        <v>44659</v>
-      </c>
-      <c r="K9" s="4">
-        <v>44659</v>
+      <c r="J9" s="5">
+        <v>44753</v>
+      </c>
+      <c r="K9" s="5">
+        <v>44753</v>
       </c>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" s="2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>2022</v>
       </c>
-      <c r="B10" s="4">
-        <v>44562</v>
-      </c>
-      <c r="C10" s="4">
-        <v>44651</v>
+      <c r="B10" s="5">
+        <v>44652</v>
+      </c>
+      <c r="C10" s="5">
+        <v>44742</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="E10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>48</v>
       </c>
       <c r="H10" s="3">
-        <v>5</v>
-      </c>
-      <c r="I10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="4">
-        <v>44659</v>
-      </c>
-      <c r="K10" s="4">
-        <v>44659</v>
+      <c r="J10" s="5">
+        <v>44753</v>
+      </c>
+      <c r="K10" s="5">
+        <v>44753</v>
       </c>
       <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B11" s="4">
-        <v>44562</v>
-      </c>
-      <c r="C11" s="4">
-        <v>44651</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H11" s="3">
-        <v>4</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J11" s="4">
-        <v>44659</v>
-      </c>
-      <c r="K11" s="4">
-        <v>44659</v>
-      </c>
-      <c r="L11" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -952,12 +930,10 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G10" r:id="rId1"/>
-    <hyperlink ref="G9" r:id="rId2" location="comments"/>
-    <hyperlink ref="G11" r:id="rId3" location="comments"/>
-    <hyperlink ref="G8" r:id="rId4"/>
+    <hyperlink ref="G8" r:id="rId1"/>
+    <hyperlink ref="G9" r:id="rId2"/>
+    <hyperlink ref="G10" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/xlsx/a69_f48_bUPPachuca.xlsx
+++ b/xlsx/a69_f48_bUPPachuca.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3er Trimestre 2022\Recepción de Información\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0D2462F-2069-4177-97E0-A7EE7E87F00C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7650"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="59">
   <si>
     <t>46820</t>
   </si>
@@ -133,65 +139,95 @@
     <t>Nota</t>
   </si>
   <si>
-    <t>Departamento de Servicio Escolares (UPP)</t>
-  </si>
-  <si>
-    <t>Buenas tardes, donde puedo descargar la guia para el examen de admisión. Nose si sea la misma guia.</t>
-  </si>
-  <si>
-    <t>Nevo ingreso</t>
-  </si>
-  <si>
-    <t>https://www.upp.edu.mx/serviciosescolares/?p=4089</t>
-  </si>
-  <si>
-    <t>Para llenar el formato de silicitud de baja, en el apartado de elegir motivo, se elige uno por los 4 puntos o se contesta en cada punto que aparece?</t>
-  </si>
-  <si>
-    <t>Bajas</t>
-  </si>
-  <si>
-    <t>https://www.upp.edu.mx/serviciosescolares/?page_id=2</t>
-  </si>
-  <si>
-    <t>Titulación</t>
-  </si>
-  <si>
-    <t>Hola, buen dia. El día de mañana es mi cita, en caso de no contar con INE ni pasaporte por extravío. Puedo utilizar mi licencia de conducir para presentarme a la cita?</t>
-  </si>
-  <si>
-    <t>https://www.upp.edu.mx/serviciosescolares/?p=4156</t>
+    <t xml:space="preserve"> Departamento de Servicio Escolares (UPP)</t>
+  </si>
+  <si>
+    <t>¿Dónde puedo ver la convocatoria?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reinscripción </t>
+  </si>
+  <si>
+    <t>En caso de tener ya terminado el tsu de otra universidad tecnológica se puede inscribir para la modalidad de ingeneria</t>
+  </si>
+  <si>
+    <t>Equivalencia de estudios</t>
   </si>
   <si>
     <t>Hola,
-Gracias por contactarnos, la guía de estudios se le brindará junto con el pase de ingreso a la evaluación diagnóstica.
+Gracias por contactarnos, en atención al correo que antecede, en la siguiente liga se encuentran disponibles los requisitos para solicitar el trámite de equivalencia de estudios.
+http://www.upp.edu.mx/serviciosescolares/?page_id=1790
+El próximo periodo de recepción de solicitudes para equivalencia de estudios tentativamente será del 19 al 23 de septiembre, en caso de que su dictamen sea favorable, su ingreso sería en el cuatrimestre Enero – Abril 2023.
+Ponemos a su disposición los siguientes datos de contacto para dudas o aclaraciones:
+Correo electrónico: equivalencia@upp.edu.mx
+Teléfono: 7715477510 ext. 2244
+Saludos cordiales</t>
+  </si>
+  <si>
+    <t>Hola,
+Gracias por contactarnos, la convocatoria de Reinscripción para el cuatrimestre Septiembre – Diciembre 2022 se encuentra disponible en el siguiente enlace:
+https://www.upp.edu.mx/serviciosescolares/wp-content/uploads/2022/08/Reinscripciones-Sep-Dic-2022-200722.pdf
 Ponemos a su disposición los siguientes datos de contacto para brindarle una mejor y oportuna atención:
-Correo electrónico: servescolares@upp.edu.mx
 Teléfono 7715477510 ext. 2244 y 2213
 Saludos cordiales</t>
   </si>
   <si>
+    <t>https://www.upp.edu.mx/serviciosescolares/?p=4334</t>
+  </si>
+  <si>
+    <t>Curso propedéutico</t>
+  </si>
+  <si>
+    <t>Hola, buen día, me interesa el curso, me pueden dar fechas para inscribirse</t>
+  </si>
+  <si>
     <t>Hola,
-Gracias por contactarnos, deberá elegir sólo una opción.
+Gracias por contactarnos, con base en la convocatoria del curso propedéutico puede realizar la inscripción al curso desde la publicación de la convocatoria con fecha límite el 20 de septiembre de 2022. En el siguiente enlace se encuentra disponible la convocatoria en la cual se mencionan paso a paso las actividades a realizar para su inscripción.
+https://www.upp.edu.mx/serviciosescolares/wp-content/uploads/2022/09/Convocatoria-Prope-Sep-Nov-010922_c.pdf
 Ponemos a su disposición los siguientes datos de contacto para brindarle una mejor y oportuna atención:
-Correo electrónico: servescolares@upp.edu.mx
 Teléfono 7715477510 ext. 2244 y 2213
 Saludos cordiales</t>
   </si>
   <si>
+    <t>https://www.upp.edu.mx/serviciosescolares/?p=4345</t>
+  </si>
+  <si>
+    <t>Me interesa la carrera y quisiera ver cuando habren convocatorias para esa carrera de médico sirujano</t>
+  </si>
+  <si>
+    <t>Nuevo ingreso</t>
+  </si>
+  <si>
     <t>Hola,
-Gracias por contactarnos, sí puede presentar alguna otra identificación con fotografía.
+Gracias por contactarnos, la próxima convocatoria de admisión para la Licenciatura en Médico Cirujano será publicada en el mes de septiembre, después del 15 de septiembre para presentar examen en el mes de noviembre, las y los aspirantes aceptados se inscriben en diciembre para iniciar clases en enero de 2023.
 Ponemos a su disposición los siguientes datos de contacto para brindarle una mejor y oportuna atención:
 Teléfono 7715477510 ext. 2244 y 2213
-Horario de atención De lunes a viernes en días hábiles de 9:00 a 16:00 horas
 Saludos cordiales</t>
+  </si>
+  <si>
+    <t>https://www.upp.edu.mx/serviciosescolares/?p=4148</t>
+  </si>
+  <si>
+    <t>Hola buenas tardes, disculpe en cuanto sale todo el tramite para la obtención del titulo después de haber terminado la carrera?
+Agradezco de antemano su orientación</t>
+  </si>
+  <si>
+    <t>Titulación</t>
+  </si>
+  <si>
+    <t>Hola,
+Gracias por escribirnos, se pide atentamente envíe un correo electrónico a la cuenta titulacion@upp.edu.mx con gusto le brindarán la información que usted requiere.
+Saludos cordiales</t>
+  </si>
+  <si>
+    <t>https://www.upp.edu.mx/serviciosescolares/?p=4156</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -211,13 +247,6 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -246,7 +275,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -269,30 +298,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -301,15 +317,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -344,39 +360,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -411,7 +427,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -455,175 +471,151 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="G3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,13 +625,13 @@
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="53.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.42578125" customWidth="1"/>
+    <col min="6" max="6" width="76" customWidth="1"/>
+    <col min="7" max="7" width="59.42578125" customWidth="1"/>
     <col min="8" max="8" width="62.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17" customWidth="1"/>
+    <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -648,38 +640,38 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="8" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="8" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-    </row>
-    <row r="3" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="11" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -758,20 +750,20 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -811,113 +803,185 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="135" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="8" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>2022</v>
       </c>
-      <c r="B8" s="5">
-        <v>44652</v>
-      </c>
-      <c r="C8" s="5">
-        <v>44742</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="B8" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44834</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="3">
+        <v>44844</v>
+      </c>
+      <c r="K8" s="3">
+        <v>44844</v>
+      </c>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" ht="210" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B9" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C9" s="3">
+        <v>44834</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="3">
+        <v>44844</v>
+      </c>
+      <c r="K9" s="3">
+        <v>44844</v>
+      </c>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" ht="195" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B10" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C10" s="3">
+        <v>44834</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="G10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="2">
+        <v>2</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="3">
+        <v>44844</v>
+      </c>
+      <c r="K10" s="3">
+        <v>44844</v>
+      </c>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B11" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C11" s="3">
+        <v>44834</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="2">
         <v>3</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="5">
-        <v>44753</v>
-      </c>
-      <c r="K8" s="5">
-        <v>44753</v>
-      </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="J11" s="3">
+        <v>44844</v>
+      </c>
+      <c r="K11" s="3">
+        <v>44844</v>
+      </c>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>2022</v>
       </c>
-      <c r="B9" s="5">
-        <v>44652</v>
-      </c>
-      <c r="C9" s="5">
-        <v>44742</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="3">
-        <v>1</v>
-      </c>
-      <c r="I9" s="4" t="s">
+      <c r="B12" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C12" s="3">
+        <v>44834</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="2">
+        <v>4</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="5">
-        <v>44753</v>
-      </c>
-      <c r="K9" s="5">
-        <v>44753</v>
-      </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B10" s="5">
-        <v>44652</v>
-      </c>
-      <c r="C10" s="5">
-        <v>44742</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="3">
-        <v>2</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="5">
-        <v>44753</v>
-      </c>
-      <c r="K10" s="5">
-        <v>44753</v>
-      </c>
-      <c r="L10" s="3"/>
+      <c r="J12" s="3">
+        <v>44844</v>
+      </c>
+      <c r="K12" s="3">
+        <v>44844</v>
+      </c>
+      <c r="L12" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -930,9 +994,10 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G8" r:id="rId1"/>
-    <hyperlink ref="G9" r:id="rId2"/>
-    <hyperlink ref="G10" r:id="rId3"/>
+    <hyperlink ref="G8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G10" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G11" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G12" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/xlsx/a69_f48_bUPPachuca.xlsx
+++ b/xlsx/a69_f48_bUPPachuca.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3er Trimestre 2022\Recepción de Información\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4to Trimestre 2022\Recepción de Información\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0D2462F-2069-4177-97E0-A7EE7E87F00C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6643A3C-4BE4-4DC0-8D35-A2A011330779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t>46820</t>
   </si>
@@ -142,85 +142,35 @@
     <t xml:space="preserve"> Departamento de Servicio Escolares (UPP)</t>
   </si>
   <si>
-    <t>¿Dónde puedo ver la convocatoria?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reinscripción </t>
-  </si>
-  <si>
-    <t>En caso de tener ya terminado el tsu de otra universidad tecnológica se puede inscribir para la modalidad de ingeneria</t>
-  </si>
-  <si>
-    <t>Equivalencia de estudios</t>
+    <t>Buen día, disculpe en esta ocasión no entra en la convocatoria la Licencuatura en médico cirujano??</t>
+  </si>
+  <si>
+    <t>Nuevo ingreso</t>
   </si>
   <si>
     <t>Hola,
-Gracias por contactarnos, en atención al correo que antecede, en la siguiente liga se encuentran disponibles los requisitos para solicitar el trámite de equivalencia de estudios.
-http://www.upp.edu.mx/serviciosescolares/?page_id=1790
-El próximo periodo de recepción de solicitudes para equivalencia de estudios tentativamente será del 19 al 23 de septiembre, en caso de que su dictamen sea favorable, su ingreso sería en el cuatrimestre Enero – Abril 2023.
-Ponemos a su disposición los siguientes datos de contacto para dudas o aclaraciones:
-Correo electrónico: equivalencia@upp.edu.mx
-Teléfono: 7715477510 ext. 2244
-Saludos cordiales</t>
-  </si>
-  <si>
-    <t>Hola,
-Gracias por contactarnos, la convocatoria de Reinscripción para el cuatrimestre Septiembre – Diciembre 2022 se encuentra disponible en el siguiente enlace:
-https://www.upp.edu.mx/serviciosescolares/wp-content/uploads/2022/08/Reinscripciones-Sep-Dic-2022-200722.pdf
+Gracias por contactarnos, la convocatoria de admisión de la Licenciatura en Médico Cirujano se encuentra disponible en el siguiente enlace:
+https://www.upp.edu.mx/serviciosescolares/wp-content/uploads/2022/09/F-conv-MEDICR-2023-060922_compressed.pdf
 Ponemos a su disposición los siguientes datos de contacto para brindarle una mejor y oportuna atención:
 Teléfono 7715477510 ext. 2244 y 2213
 Saludos cordiales</t>
   </si>
   <si>
-    <t>https://www.upp.edu.mx/serviciosescolares/?p=4334</t>
-  </si>
-  <si>
-    <t>Curso propedéutico</t>
-  </si>
-  <si>
-    <t>Hola, buen día, me interesa el curso, me pueden dar fechas para inscribirse</t>
-  </si>
-  <si>
-    <t>Hola,
-Gracias por contactarnos, con base en la convocatoria del curso propedéutico puede realizar la inscripción al curso desde la publicación de la convocatoria con fecha límite el 20 de septiembre de 2022. En el siguiente enlace se encuentra disponible la convocatoria en la cual se mencionan paso a paso las actividades a realizar para su inscripción.
-https://www.upp.edu.mx/serviciosescolares/wp-content/uploads/2022/09/Convocatoria-Prope-Sep-Nov-010922_c.pdf
-Ponemos a su disposición los siguientes datos de contacto para brindarle una mejor y oportuna atención:
-Teléfono 7715477510 ext. 2244 y 2213
+    <t>https://www.upp.edu.mx/serviciosescolares/wp-admin/post.php?post=4407&amp;action=edit</t>
+  </si>
+  <si>
+    <t>Buenas tardes, una vez que se entregan todos los documentos, ¿cuánto tiempo se tarda en estar el título electrónico?</t>
+  </si>
+  <si>
+    <t>Buenas tardes,
+Gracias por escribirnos, se pide atentamente se comunique al 7715477510 ext., 2247 para brindarle una mejor y oportuna atención.
 Saludos cordiales</t>
   </si>
   <si>
-    <t>https://www.upp.edu.mx/serviciosescolares/?p=4345</t>
-  </si>
-  <si>
-    <t>Me interesa la carrera y quisiera ver cuando habren convocatorias para esa carrera de médico sirujano</t>
-  </si>
-  <si>
-    <t>Nuevo ingreso</t>
-  </si>
-  <si>
-    <t>Hola,
-Gracias por contactarnos, la próxima convocatoria de admisión para la Licenciatura en Médico Cirujano será publicada en el mes de septiembre, después del 15 de septiembre para presentar examen en el mes de noviembre, las y los aspirantes aceptados se inscriben en diciembre para iniciar clases en enero de 2023.
-Ponemos a su disposición los siguientes datos de contacto para brindarle una mejor y oportuna atención:
-Teléfono 7715477510 ext. 2244 y 2213
-Saludos cordiales</t>
-  </si>
-  <si>
-    <t>https://www.upp.edu.mx/serviciosescolares/?p=4148</t>
-  </si>
-  <si>
-    <t>Hola buenas tardes, disculpe en cuanto sale todo el tramite para la obtención del titulo después de haber terminado la carrera?
-Agradezco de antemano su orientación</t>
+    <t>https://www.upp.edu.mx/serviciosescolares/wp-admin/post.php?post=4156&amp;action=edit</t>
   </si>
   <si>
     <t>Titulación</t>
-  </si>
-  <si>
-    <t>Hola,
-Gracias por escribirnos, se pide atentamente envíe un correo electrónico a la cuenta titulacion@upp.edu.mx con gusto le brindarán la información que usted requiere.
-Saludos cordiales</t>
-  </si>
-  <si>
-    <t>https://www.upp.edu.mx/serviciosescolares/?p=4156</t>
   </si>
 </sst>
 </file>
@@ -303,7 +253,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -314,11 +264,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -612,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,8 +576,8 @@
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="76" customWidth="1"/>
-    <col min="7" max="7" width="59.42578125" customWidth="1"/>
+    <col min="6" max="6" width="71.42578125" customWidth="1"/>
+    <col min="7" max="7" width="61.5703125" customWidth="1"/>
     <col min="8" max="8" width="62.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
@@ -640,38 +591,38 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="9" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -750,20 +701,20 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
     </row>
     <row r="7" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -803,185 +754,77 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2022</v>
       </c>
       <c r="B8" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C8" s="3">
-        <v>44834</v>
+        <v>44926</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>46</v>
+      <c r="F8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="H8" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J8" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="K8" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" ht="210" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2022</v>
       </c>
       <c r="B9" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C9" s="3">
-        <v>44834</v>
+        <v>44926</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="F9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>46</v>
       </c>
       <c r="H9" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J9" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="K9" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="1:12" ht="195" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B10" s="3">
-        <v>44743</v>
-      </c>
-      <c r="C10" s="3">
-        <v>44834</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" s="2">
-        <v>2</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="3">
-        <v>44844</v>
-      </c>
-      <c r="K10" s="3">
-        <v>44844</v>
-      </c>
-      <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="1:12" ht="150" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B11" s="3">
-        <v>44743</v>
-      </c>
-      <c r="C11" s="3">
-        <v>44834</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H11" s="2">
-        <v>3</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J11" s="3">
-        <v>44844</v>
-      </c>
-      <c r="K11" s="3">
-        <v>44844</v>
-      </c>
-      <c r="L11" s="2"/>
-    </row>
-    <row r="12" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B12" s="3">
-        <v>44743</v>
-      </c>
-      <c r="C12" s="3">
-        <v>44834</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H12" s="2">
-        <v>4</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J12" s="3">
-        <v>44844</v>
-      </c>
-      <c r="K12" s="3">
-        <v>44844</v>
-      </c>
-      <c r="L12" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -995,9 +838,7 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G10" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G11" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G12" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G9" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/xlsx/a69_f48_bUPPachuca.xlsx
+++ b/xlsx/a69_f48_bUPPachuca.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4to Trimestre 2022\Recepción de Información\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6643A3C-4BE4-4DC0-8D35-A2A011330779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10215" windowHeight="7485"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -142,41 +136,45 @@
     <t xml:space="preserve"> Departamento de Servicio Escolares (UPP)</t>
   </si>
   <si>
-    <t>Buen día, disculpe en esta ocasión no entra en la convocatoria la Licencuatura en médico cirujano??</t>
-  </si>
-  <si>
-    <t>Nuevo ingreso</t>
-  </si>
-  <si>
-    <t>Hola,
-Gracias por contactarnos, la convocatoria de admisión de la Licenciatura en Médico Cirujano se encuentra disponible en el siguiente enlace:
-https://www.upp.edu.mx/serviciosescolares/wp-content/uploads/2022/09/F-conv-MEDICR-2023-060922_compressed.pdf
+    <t>Buenos días, a partir de cuando se puede agendar la cita virtual? Estoy intentando pero no me aparece el evento.
+Gracias</t>
+  </si>
+  <si>
+    <t>Muy buenas tardes
+Para agendar su cita lo podrá realizar a partir del día 30 de marzo del año en curso.
+Excelente día.</t>
+  </si>
+  <si>
+    <t>Titulación</t>
+  </si>
+  <si>
+    <t>https://www.upp.edu.mx/serviciosescolares/?p=4156#comments</t>
+  </si>
+  <si>
+    <t>Admisión</t>
+  </si>
+  <si>
+    <t>Me interesa saber qué fecha se va ser el examen de admisión de médico cirujano</t>
+  </si>
+  <si>
+    <t>https://www.upp.edu.mx/serviciosescolares/?p=4677#comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hola,
+Gracias por contactarnos, en el siguiente enlace se encuentra disponible la convocatoria de admisión para el programa educativo de Licenciatura en Médico Cirujano:
+https://www.upp.edu.mx/serviciosescolares/wp-content/uploads/2023/02/Conv-MEDICR-2023_-270223.pdf
+En la convocatoria se mencionan paso a paso las actividades a realizar y las fechas para efectuarlas.
 Ponemos a su disposición los siguientes datos de contacto para brindarle una mejor y oportuna atención:
-Teléfono 7715477510 ext. 2244 y 2213
-Saludos cordiales</t>
-  </si>
-  <si>
-    <t>https://www.upp.edu.mx/serviciosescolares/wp-admin/post.php?post=4407&amp;action=edit</t>
-  </si>
-  <si>
-    <t>Buenas tardes, una vez que se entregan todos los documentos, ¿cuánto tiempo se tarda en estar el título electrónico?</t>
-  </si>
-  <si>
-    <t>Buenas tardes,
-Gracias por escribirnos, se pide atentamente se comunique al 7715477510 ext., 2247 para brindarle una mejor y oportuna atención.
-Saludos cordiales</t>
-  </si>
-  <si>
-    <t>https://www.upp.edu.mx/serviciosescolares/wp-admin/post.php?post=4156&amp;action=edit</t>
-  </si>
-  <si>
-    <t>Titulación</t>
+servescolares@upp.edu.mx
+7715477510 ext. 2244 y 2213
+Saludos cordiales
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -225,7 +223,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -248,12 +246,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -269,18 +276,21 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -555,18 +565,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+    <sheetView tabSelected="1" topLeftCell="H6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,8 +586,8 @@
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="71.42578125" customWidth="1"/>
-    <col min="7" max="7" width="61.5703125" customWidth="1"/>
+    <col min="6" max="6" width="53.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="70" customWidth="1"/>
     <col min="8" max="8" width="62.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
@@ -607,7 +617,7 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
@@ -754,26 +764,26 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B8" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C8" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>40</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="12" t="s">
         <v>43</v>
       </c>
       <c r="H8" s="2">
@@ -783,46 +793,46 @@
         <v>39</v>
       </c>
       <c r="J8" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="K8" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" s="4" customFormat="1" ht="285" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B9" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C9" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>46</v>
       </c>
       <c r="H9" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J9" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="K9" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="L9" s="2"/>
     </row>
@@ -837,8 +847,8 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G9" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G8" r:id="rId1" location="comments"/>
+    <hyperlink ref="G9" r:id="rId2" location="comments"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/xlsx/a69_f48_bUPPachuca.xlsx
+++ b/xlsx/a69_f48_bUPPachuca.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\2023\SIPOT\2DO TRIMESTRE 2023\Pagina Oficial 2do Trimestre 2023\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{40BEE6E7-3FA7-4139-BA37-61FC9A3B566B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10215" windowHeight="7485"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
   <si>
     <t>46820</t>
   </si>
@@ -106,7 +112,7 @@
     <t>Fecha de término del periodo que se informa</t>
   </si>
   <si>
-    <t>Temática de las preguntas frecuentes</t>
+    <t>Temática de las preguntas frecuentes (Redactada con perspectiva de género)</t>
   </si>
   <si>
     <t>Planteamiento de las preguntas frecuentes</t>
@@ -133,48 +139,81 @@
     <t>Nota</t>
   </si>
   <si>
-    <t xml:space="preserve"> Departamento de Servicio Escolares (UPP)</t>
-  </si>
-  <si>
-    <t>Buenos días, a partir de cuando se puede agendar la cita virtual? Estoy intentando pero no me aparece el evento.
-Gracias</t>
-  </si>
-  <si>
-    <t>Muy buenas tardes
-Para agendar su cita lo podrá realizar a partir del día 30 de marzo del año en curso.
-Excelente día.</t>
-  </si>
-  <si>
-    <t>Titulación</t>
-  </si>
-  <si>
-    <t>https://www.upp.edu.mx/serviciosescolares/?p=4156#comments</t>
-  </si>
-  <si>
-    <t>Admisión</t>
-  </si>
-  <si>
-    <t>Me interesa saber qué fecha se va ser el examen de admisión de médico cirujano</t>
-  </si>
-  <si>
-    <t>https://www.upp.edu.mx/serviciosescolares/?p=4677#comments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hola,
-Gracias por contactarnos, en el siguiente enlace se encuentra disponible la convocatoria de admisión para el programa educativo de Licenciatura en Médico Cirujano:
-https://www.upp.edu.mx/serviciosescolares/wp-content/uploads/2023/02/Conv-MEDICR-2023_-270223.pdf
-En la convocatoria se mencionan paso a paso las actividades a realizar y las fechas para efectuarlas.
+    <t>Departamento de Servicios Escolares (UPP)</t>
+  </si>
+  <si>
+    <t>Quisiera agendar una cita para el trámite de mi título</t>
+  </si>
+  <si>
+    <t>Hola,
+Gracias por contactarnos, en el siguiente link se encuentran disponibles los Lineamientos para la Emisión y Registro de Título Profesional Electrónico:
+https://www.upp.edu.mx/serviciosescolares/wp-content/uploads/2023/04/LINEAMIENTOS-ING_LTFISICA_29_03_2023.pdf
+En el apartado Revisión de documentos se encuentra el procedimiento para agendar cita de revisión virtual.
 Ponemos a su disposición los siguientes datos de contacto para brindarle una mejor y oportuna atención:
-servescolares@upp.edu.mx
-7715477510 ext. 2244 y 2213
-Saludos cordiales
-</t>
+titulacion@upp.edu.mx
+7715477510 ext. 2247
+Saludos cordiales</t>
+  </si>
+  <si>
+    <t>https://www.upp.edu.mx/serviciosescolares/?p=4156</t>
+  </si>
+  <si>
+    <t>Buen día para solicitar una constancia de estudios, para una persona dada de baja temporal, que ya pasaron 7 años entonces creo que ya es definitiva, me podria decir cual es el proces y si aun se puede solicitar.
+es necesario matricula o solo me puedo presentar con mi nombre, es que no tengo la matricula.
+Gracias, buen día</t>
+  </si>
+  <si>
+    <t>Hola,
+Gracias por comunicarse, en el siguiente link se encuentra disponible el procedimiento para solicitar constancia de estudios o historial académico.
+https://www.upp.edu.mx/serviciosescolares/wp-content/uploads/2023/01/CATALOGO-DE-CONSTANCIAS-E-HISTORIALES-ACADEMICOS-GENERAL-30_01_2023_compressed.pdf
+Ponemos a su disposición los siguientes datos de contacto para brindarle una mejor y oportuna atención:
+Teléfono 7715477510 ext. 2244 y 2213
+Saludos cordiales.</t>
+  </si>
+  <si>
+    <t>https://www.upp.edu.mx/serviciosescolares/?page_id=2</t>
+  </si>
+  <si>
+    <t>Hola, buenos días
+Para contactarlos, favor de indicar número telefónico ya que el que está publicado en la página no está disponible…</t>
+  </si>
+  <si>
+    <t>Obtención de título profesional electrónico</t>
+  </si>
+  <si>
+    <t>Solicitud de constancia escolar</t>
+  </si>
+  <si>
+    <t>Información de contacto</t>
+  </si>
+  <si>
+    <t>Hola me gustaría saber la fecha del examen de admisión en donde puedo consultarlo gracias</t>
+  </si>
+  <si>
+    <t>https://www.upp.edu.mx/serviciosescolares/?p=4674</t>
+  </si>
+  <si>
+    <t>Información de nuevo ingreso</t>
+  </si>
+  <si>
+    <t>Hola,
+Gracias por escribirnos, ponemos a su disposición el correo electrónico servescolares@upp.edu.mx para contactarnos.
+Saludos cordiales.</t>
+  </si>
+  <si>
+    <t>Hola,
+Gracias por escribirnos, se pide atentamente envíe un correo a servescolares@upp.edu.mx con los siguientes datos:
+Nombre completo
+CURP
+Número de ficha
+Programa educativo (carrera) a la que desea ingresar
+Saludos cordiales</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -188,13 +227,11 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -223,7 +260,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -246,51 +283,39 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -327,7 +352,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -339,7 +364,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -356,9 +381,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -386,14 +411,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -421,6 +463,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -565,18 +624,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,10 +643,10 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="53.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="70" customWidth="1"/>
+    <col min="4" max="4" width="66.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="61" customWidth="1"/>
+    <col min="6" max="6" width="74" customWidth="1"/>
+    <col min="7" max="7" width="63" customWidth="1"/>
     <col min="8" max="8" width="62.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
@@ -617,7 +676,7 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
@@ -764,18 +823,18 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>2023</v>
       </c>
-      <c r="B8" s="3">
-        <v>44927</v>
-      </c>
-      <c r="C8" s="3">
-        <v>45016</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>42</v>
+      <c r="B8" s="4">
+        <v>45017</v>
+      </c>
+      <c r="C8" s="4">
+        <v>45107</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>40</v>
@@ -783,58 +842,130 @@
       <c r="F8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="3">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="4">
+        <v>45117</v>
+      </c>
+      <c r="K8" s="4">
+        <v>45117</v>
+      </c>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B9" s="4">
+        <v>45017</v>
+      </c>
+      <c r="C9" s="4">
+        <v>45107</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="2">
-        <v>8</v>
-      </c>
-      <c r="I8" s="2" t="s">
+      <c r="F9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="3">
-        <v>45026</v>
-      </c>
-      <c r="K8" s="3">
-        <v>45026</v>
-      </c>
-      <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" s="4" customFormat="1" ht="285" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="J9" s="4">
+        <v>45117</v>
+      </c>
+      <c r="K9" s="4">
+        <v>45117</v>
+      </c>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>2023</v>
       </c>
-      <c r="B9" s="3">
-        <v>44927</v>
-      </c>
-      <c r="C9" s="3">
-        <v>45016</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="B10" s="4">
+        <v>45017</v>
+      </c>
+      <c r="C10" s="4">
+        <v>45107</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" s="2">
-        <v>4</v>
-      </c>
-      <c r="I9" s="2" t="s">
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="3">
-        <v>45026</v>
-      </c>
-      <c r="K9" s="3">
-        <v>45026</v>
-      </c>
-      <c r="L9" s="2"/>
+      <c r="J10" s="4">
+        <v>45117</v>
+      </c>
+      <c r="K10" s="4">
+        <v>45117</v>
+      </c>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" ht="161.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B11" s="4">
+        <v>45017</v>
+      </c>
+      <c r="C11" s="4">
+        <v>45107</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="4">
+        <v>45117</v>
+      </c>
+      <c r="K11" s="4">
+        <v>45117</v>
+      </c>
+      <c r="L11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -847,9 +978,12 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G8" r:id="rId1" location="comments"/>
-    <hyperlink ref="G9" r:id="rId2" location="comments"/>
+    <hyperlink ref="G8" r:id="rId1" xr:uid="{C14F88CE-E072-46E6-92AD-4A6DA023E1BC}"/>
+    <hyperlink ref="G9" r:id="rId2" xr:uid="{4A69EF24-1689-436F-97CD-07D930BF95D5}"/>
+    <hyperlink ref="G10" r:id="rId3" xr:uid="{C0029408-52C2-4165-957E-E90E52CB4750}"/>
+    <hyperlink ref="G11" r:id="rId4" xr:uid="{741D7939-09BF-4EAA-8E31-87BD176AED38}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId5"/>
 </worksheet>
 </file>